--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,15 +458,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>（示例）中国的首都在哪里？</t>
+          <t>中国在哪里？</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要城市。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中国位于东亚，是世界上面积第三大、人口最多的国家。它的东部和南部濒临太平洋，北部与俄罗斯和蒙古接壤，西部与哈萨克斯坦、吉尔吉斯斯坦、塔吉克斯坦等国接壤，西南部与印度、尼泊尔、不丹等国接壤，东南部与越南、老挝、缅甸等国接壤。中国有着悠久的历史和丰富的文化，是一个充满魅力的国家。如果你有更多关于中国的问题，随时告诉我哦！</t>
+        </is>
+      </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
@@ -474,18 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>@~【发生时间：】/@~【网点名称与地址：】/@~【工号或窗号：】/@~【涉及受理差错问题:】管理停机@~【用户诉求:】用户表示自己是跳伞极地活动的工作人员，需要打电话通知，电话量较大，经常被管制电话，用户表示，自己如果注册外卖平台之类的是否能加入白名单，同时用户表示，如果正常解决不了，能否有更高一级权限的人员处理，用户表示自己已经去派出所开具了相关证明，希望尽快处理，前台无权限操作，麻烦后台处理，谢谢。@~【其他联系电话:】！#%**#%#￥%（</t>
+          <t>（示例）中国的首都在哪里？</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
+          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要城市。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>管理停机类-对管停规则不认可</t>
+          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要枢纽。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -495,168 +498,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>历史工单号@）@￥）%@@！！#@@%X^*@%%，【客户诉求】想要销户@~【客户诉求】：信安关停要求复机@~【查证情况】：@）@！-！）-！（停机#信安关停#系统：不良信息治理#管理停机#动作识别#@~（金华）【号码使用异常】您的号码出现使用异常，为了保护您的权益，请您本人持有效身份证件前往省内营业厅处理。@~【处理结果】@）@￥年%月@@日！@:%*:）&amp;联系！&amp;@*）%%）#&amp;#，系统提示音：停机，联系！%（）^^*@#）（，核实为！&amp;@*）%%）#&amp;#机主，用户要求号码销户，经沟通，直接下发短信，用户回传销户资料，我方为用户办理销户。销户办理成功立即生效，（）天内拨打提示停机，话费余额转移至！%（）^^*@#）（号码，归属地：杭州，正常#-%个工作日到账。因省内号码我方无法调账，故为金华号码！&amp;@*）%%）#&amp;#负充值@！.&amp;）元（负充值单号GZL@）@￥）%@@））！@*%），退费@！.&amp;）元至杭州号码！%（）^^*@#）（中（备档退费单号@）@￥）%@#）（#*））X*%（￥^），用户认可。wb_zhouyuanyuan#！@~【备注】：不评价</t>
+          <t>（示例）中国的首都在哪里？</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
+          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要城市。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>管理停机类-对管停规则不认可</t>
+          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和教育的重要枢纽。如果你有更多关于北京或者其他地方的问题，随时告诉我哦！😊</t>
         </is>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>历史工单号@）@￥）%@@！！#@@%X^*@%%，【客户诉求】想要销户@~【客户诉求】：信安关停要求复机@~【查证情况】：@）@！-！）-！（停机#信安关停#系统：不良信息治理#管理停机#动作识别#@~（金华）【号码使用异常】您的号码出现使用异常，为了保护您的权益，请您本人持有效身份证件前往省内营业厅处理。@~【处理结果】@）@￥年%月@@日！@:%*:）&amp;联系！&amp;@*）%%）#&amp;#，系统提示音：停机，联系！%（）^^*@#）（，核实为！&amp;@*）%%）#&amp;#机主，用户要求号码销户，经沟通，直接下发短信，用户回传销户资料，我方为用户办理销户。销户办理成功立即生效，（）天内拨打提示停机，话费余额转移至！%（）^^*@#）（号码，归属地：杭州，正常#-%个工作日到账。因省内号码我方无法调账，故为金华号码！&amp;@*）%%）#&amp;#负充值@！.&amp;）元（负充值单号GZL@）@￥）%@@））！@*%），退费@！.&amp;）元至杭州号码！%（）^^*@#）（中（备档退费单号@）@￥）%@#）（#*））X*%（￥^），用户认可。wb_zhouyuanyuan#！@~【备注】：不评价</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>管理停机类-对管停规则不认可</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>历史工单号@）@￥）%@@！！#@@%X^*@%%，【客户诉求】想要销户@~【客户诉求】：信安关停要求复机@~【查证情况】：@）@！-！）-！（停机#信安关停#系统：不良信息治理#管理停机#动作识别#@~（金华）【号码使用异常】您的号码出现使用异常，为了保护您的权益，请您本人持有效身份证件前往省内营业厅处理。@~【处理结果】@）@￥年%月@@日！@:%*:）&amp;联系！&amp;@*）%%）#&amp;#，系统提示音：停机，联系！%（）^^*@#）（，核实为！&amp;@*）%%）#&amp;#机主，用户要求号码销户，经沟通，直接下发短信，用户回传销户资料，我方为用户办理销户。销户办理成功立即生效，（）天内拨打提示停机，话费余额转移至！%（）^^*@#）（号码，归属地：杭州，正常#-%个工作日到账。因省内号码我方无法调账，故为金华号码！&amp;@*）%%）#&amp;#负充值@！.&amp;）元（负充值单号GZL@）@￥）%@@））！@*%），退费@！.&amp;）元至杭州号码！%（）^^*@#）（中（备档退费单号@）@￥）%@#）（#*））X*%（￥^），用户认可。wb_zhouyuanyuan#！@~【备注】：不评价</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>管理停机类-对管停规则不认可</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DX【！@#￥%】@~【客户诉求】（截止日期：@）@￥-）%-！！）其是杭州移动手机号！（**#@）#（￥^用户，于@）@￥年）%月）^日！！:#%左右接到自称是杭州移动公司人员的来电（号码：！#*）%&amp;！）%&amp;！），询问其个人信息，称该号码被人投诉等事宜，也没有充分沟通对方就主动挂机，现希望帮助核实此事真实性，请有关部门核实处理。@~【查证情况】@~【退费记录】@~【处理意见】"！、客户反映停机问题。@~@、根据《中华人民共和国反电信网络诈骗法》的相关法律要求，及浙江省通信管理局、浙江省公安厅文件：浙通联网安〔@）@）〕！！！号，关于印发《浙江省涉电信网络新型违法犯罪不良信用通信网用户和高风险号码管理意见（试行）》的通知，因！（**#@）#（￥^号码存在异常使用情况于@）@￥-）%-）&amp;被限制通信功能。@~#、查询停机前@￥小时已有短信提醒。【实名实人验证提醒】尊敬的客户：您好！您的号码近期存在异常情况，为保护您的权益和账户安全，避免被他人非法使用。请您在@￥小时内使用移动网络点击此链接https://dx.！））*^.cn/nueHHg一键登陆进行二次实名实人验证。若验证不通过或￥、因客户号码！（**#@）#（￥^于%-&amp;日被管理停机，我司工作人员（）^（号通过！））*^客服热线联系客户！（**#@）#（￥^提示已停机。建议其携带有效身份证件+SIM卡+社保证明/户口本/居住证（三选一）相关凭证，前往浙江省内营业厅进行认证，具体以营业厅现场办理为准。烦请协助转达，如客户仍有疑问，可联系我司客服热线！））*^。@~【处理工号】（）^（@~【备注】内部知晓：此工单已处理完毕，请勿添加中途意见。</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>管理停机类-对管停规则不认可</t>
-        </is>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>【问题描述：】用户来电表示对管理停机了@）@￥年%月！号-@）日所产生的费用不认可，对此要求处理，请后台协助。谢谢！@~【用户诉求：】用户来电表示对管理停机了@）@￥年%月！号-@）日所产生的费用不认可，对此要求处理，请后台协助。谢谢！@~【其他联系电话：】！#^^^^^%^&amp;）@~#同步二级应用受理业务要素#@~#同步二级应用受理业务要素#</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>管理停机类-对管停规则不认可</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>【问题描述：】客户来电表示自己有一个副卡！（%%&amp;！@！##^，之前在@#年！）月#）号进行了管理停机，客户表示号码不想使用了，要求退还@#年！！月到@￥年%月的流量通话共享功能费，前台解释无效，因无合适节点，故选此节点，烦请后台处理谢谢！@~【用户诉求：】客户来电表示自己有一个副卡！（%%&amp;！@！##^，之前在@#年！）月#）号进行了管理停机，客户表示号码不想使用了，要求退还@#年！！月到@￥年%月的流量通话共享功能费，前台解释无效，因无合适节点，故选此节点，烦请后台处理谢谢！@~【其他联系电话：】！&amp;@*）！%（（&amp;%@~#同步二级应用受理业务要素#@~#同步二级应用受理业务要素#</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>管理停机类-对管停规则不认可</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>【问题描述：】用户来电反映自己#月份被管理停机，后恢复正常，但电话一直都是打不通的，导致#月份和￥月份的套餐月费都是在正常收取，现用户要求退还#月份和￥月份的所有费用，请处理，谢谢@~【用户诉求：】要求尽快处理@~【其他联系电话：】！#（%&amp;！））*%*@~#同步二级应用受理业务要素#@~#同步二级应用受理业务要素#</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>管理停机类-对管停规则不认可</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>【！@#￥%的投诉】@~【客户诉求】退费@~【查证过程】！#&amp;*****&amp;^^订购增值策划@）@@-）%-！@！（:%*:@！管理限制短信系统：不良信息治理【sys_blxxzl】浙江移动总公司【）】（杭州）【实名实人关停】客户未按时认证或认证不通过，为了保障您的账户安全，根据公安机关相关要求将暂停您的通信功能。请您根据停机提醒的短信内容通过线上认证或者携带本人身份证件和SIM卡前往营业厅进行身份验证，验证通过后可恢复使用。（H！！）后台自动处理割接专用工号&amp;！#）%！@￥！%&amp;（@*@~【处理意见】！、客户反映手机号码扣费问题@~@、经核实，客户！#&amp;&amp;&amp;￥（*&amp;^^号码于@）@@-）%-！@进行管理停机，为了保障您的账户安全，根据公安机关相关要求将暂停您的通信功能。客户要求处理未使用的费用，经核实客户使用记录，未查询到有使用情况，我司本次酌情为客户处理@）@@）^-@）@￥）%产生的套餐%*元费用，共计@￥个月，因！%（%*！￥@#%#是统一支付家长，故共计@￥*%*=！#（@元返还到！%（%*！￥@#%#号码上，如若号码不使用建议本人拿着身份证件，到营业厅进行办理销户，客户认可@~#、@）@￥年%月@*日）*:%）:#%我司工作人员^&amp;%@号通过！））*^客服热线联系客户！%（%*！￥@#%#沟通，客户认可@~【联系情况】联系客户，客户认可@~【处理工号】ZJS^&amp;%@@~【备注】</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理停机类-对管停规则不认可
-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>管理停机类-对管停规则不认可</t>
-        </is>
-      </c>
-      <c r="D11" t="b">
         <v>1</v>
       </c>
     </row>

--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,39 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>期望输出</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Agent回答</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>是否正确</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>中国在哪里？</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要城市。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中国位于东亚，是世界上面积第三大、人口最多的国家。它的东部和南部濒临太平洋，北部与俄罗斯和蒙古接壤，西部与哈萨克斯坦、吉尔吉斯斯坦、塔吉克斯坦等国接壤，西南部与印度、尼泊尔、不丹等国接壤，东南部与越南、老挝、缅甸等国接壤。中国有着悠久的历史和丰富的文化，是一个充满魅力的国家。如果你有更多关于中国的问题，随时告诉我哦！</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
+          <t>（示例）中国的首都在哪里？</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,19 +459,7 @@
           <t>（示例）中国的首都在哪里？</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要城市。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要枢纽。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
-        </is>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -501,19 +467,15 @@
           <t>（示例）中国的首都在哪里？</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和国际交流的重要城市。如果你有更多关于北京或其他地方的问题，随时告诉我，我很乐意帮你解答。😊</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中国的首都是北京哦。北京不仅是中国的政治中心，也是文化和教育的重要枢纽。如果你有更多关于北京或者其他地方的问题，随时告诉我哦！😊</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>（示例）中国的首都在哪里？</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
